--- a/src/test/resources/TestData/LoginCredentials.xlsx
+++ b/src/test/resources/TestData/LoginCredentials.xlsx
@@ -15,9 +15,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
-    <t>Table 1</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -32,18 +29,37 @@
     <t>userLoginEmailId</t>
   </si>
   <si>
-    <t>lmsHackathon@2024</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>lmsHackathon@2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <r>
       <rPr>
         <u val="single"/>
-        <sz val="22"/>
-        <color indexed="13"/>
-        <rFont val="Helvetica"/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Helvetica Neue"/>
       </rPr>
       <t>numpyninja@gmail.com</t>
     </r>
+  </si>
+  <si>
+    <t>Table 1</t>
   </si>
 </sst>
 </file>
@@ -53,7 +69,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -70,11 +86,6 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -82,14 +93,14 @@
     <font>
       <b val="1"/>
       <sz val="18"/>
-      <color indexed="12"/>
+      <color indexed="11"/>
       <name val="Courier New"/>
     </font>
     <font>
       <u val="single"/>
-      <sz val="22"/>
-      <color indexed="13"/>
-      <name val="Helvetica"/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <b val="1"/>
@@ -136,40 +147,27 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -177,22 +175,35 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="15"/>
@@ -201,7 +212,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="15"/>
@@ -210,7 +221,7 @@
         <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -219,43 +230,43 @@
         <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -264,13 +275,13 @@
         <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -280,41 +291,35 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -323,13 +328,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -350,10 +355,10 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff0451a5"/>
-      <rgbColor rgb="ff1155cc"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
@@ -1421,45 +1426,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18.7" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.4062" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5547" style="1" customWidth="1"/>
     <col min="3" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.65" customHeight="1">
+    <row r="1" ht="29.65" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" ht="29.65" customHeight="1">
-      <c r="A2" t="s" s="4">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+    </row>
+    <row r="2" ht="62.75" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="86.35" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="B2" t="s" s="2">
         <v>3</v>
-      </c>
-      <c r="B3" t="s" s="4">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -1480,92 +1476,92 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="6" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="4" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>0</v>
+      <c r="A1" t="s" s="5">
+        <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
